--- a/Test Data Driven/AI-Generated/Common/completeShippingInformationForCheckout.xlsx
+++ b/Test Data Driven/AI-Generated/Common/completeShippingInformationForCheckout.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -751,6 +751,43 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>firdy</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>lasf</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3333</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
